--- a/biology/Zoologie/Amphiesmenoptera/Amphiesmenoptera.xlsx
+++ b/biology/Zoologie/Amphiesmenoptera/Amphiesmenoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiesmenoptera est un super-ordre d'insectes ptérygotes, qui a été établi par Willi Hennig.
 Il se compose de deux ordres : les lépidoptères (papillons et chenilles) et les trichoptères.
@@ -512,13 +524,50 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lépidoptères et les trichoptères ont un grand nombre de caractères communs prouvant leur ascendance commune.
-Les amphiesmenoptères existent depuis le Permien et la majorité des divisions entre familles de lépidoptères telles que nous les connaissons actuellement ont eu lieu entre le Jurassique et l'Éocène. Archaeolepis mane du Jurassique anglais est daté d’environ 190 millions d’années. Seuls deux autres fossiles datent du Jurassique et treize du Crétacé [1]. 
-Les fossiles datant du Tertiaire, montrent des espèces déjà très proches des espèces modernes[2].
-Fossiles
-On a trouvé des fossiles d'insectes dans les strates du Permien inférieur (Assélien et Artinskien) de la Moravie, en République tchèque et du Permien inférieur du bassin de Kuznetsk, en Russie. D'abord placés dans le sous-ordre des † Permotrichoptera (ordre des Trichoptères) par O.M. Martynova en 1958, ils ont été élevés au rang d'ordre par Minet et al. en 2010.
+Les amphiesmenoptères existent depuis le Permien et la majorité des divisions entre familles de lépidoptères telles que nous les connaissons actuellement ont eu lieu entre le Jurassique et l'Éocène. Archaeolepis mane du Jurassique anglais est daté d’environ 190 millions d’années. Seuls deux autres fossiles datent du Jurassique et treize du Crétacé . 
+Les fossiles datant du Tertiaire, montrent des espèces déjà très proches des espèces modernes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amphiesmenoptera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphiesmenoptera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a trouvé des fossiles d'insectes dans les strates du Permien inférieur (Assélien et Artinskien) de la Moravie, en République tchèque et du Permien inférieur du bassin de Kuznetsk, en Russie. D'abord placés dans le sous-ordre des † Permotrichoptera (ordre des Trichoptères) par O.M. Martynova en 1958, ils ont été élevés au rang d'ordre par Minet et al. en 2010.
 Cet ordre ne contient que la famille des † Microptysmatidae O.M. Martynova, 1958, laquelle contient trois genres : † Kamopanorpa A.V. Martynov, 1928, † Microptysma O.M. Martynova, 1958 et † Microptysmella J. Kukalová-Peck &amp; R. Willmann, 1990.
 Le genre Microptysma inclut l'espèce † Microptysma sibiricum O.M. Martynova, 1958 du Permien inférieur trouvé en Russie. Le genre † Microptysmella contient l'espèce † Microptysmella moravica Kukalová-Peck &amp; R. Willmann, 1990. Ces deux espèces seraient les membres les plus anciennement connus parmi les Amphiesménoptères.
 Par ailleurs, on a trouvé sept autres genres d'insectes endoptygérotes appartenant à la famille des † Protomeropidae Tillyard, 1926, actuellement classés parmi les Mécoptères. Ce sont :
@@ -530,38 +579,40 @@
 † Stenomerope J. Kukalová-Peck &amp; R. Willmann, 1990 (Permien, 296 Ma), incluant † Stenomerope spinari.
 † Westphalomerope A. Nel, P. Roques, P. Nel, J. Prokop &amp; J.S. Steyer. 2007 (Carbonifère, 318 Ma), incluant † Westphalomerope maryvonneae.
 Un huitième genre permien, † Moravochorista J. Kukalová-Peck &amp; R. Willmann, 1990, incluant † Moravochorista carolina, appartenant à la famille des † Kaltanidae, ordre des Mécoptères, est similaire à † Pinnachorista et † Kaltanochorista (Kuznetsk, en Russie), appartenant à la même famille.
-Tous ces genres présentent des similitudes, remettant en cause la formation des Amphiesménoptères, et la position des Mécoptères vis-à-vis des Lépidoptères et des Trichoptères. Pour l'instant, la position phylogénétique de ces huit genres demeure équivoque[3].
+Tous ces genres présentent des similitudes, remettant en cause la formation des Amphiesménoptères, et la position des Mécoptères vis-à-vis des Lépidoptères et des Trichoptères. Pour l'instant, la position phylogénétique de ces huit genres demeure équivoque.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Amphiesmenoptera</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Amphiesmenoptera</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des ordres actuels d'insectes holométaboles, d'après Peters et al., 2014[4] et Misof et al., 2014[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des ordres actuels d'insectes holométaboles, d'après Peters et al., 2014 et Misof et al., 2014 :
 </t>
         </is>
       </c>
